--- a/biology/Zoologie/Louis_Marie_Alphonse_Depuiset/Louis_Marie_Alphonse_Depuiset.xlsx
+++ b/biology/Zoologie/Louis_Marie_Alphonse_Depuiset/Louis_Marie_Alphonse_Depuiset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Louis Marie Alphonse Depuiset (20 septembre 1822 à Autry, Ardennes - 17 mars 1886 à Paris) est un entomologiste  français, spécialisé dans les papillons ou Lepidoptera. Outre ses publications, il est notamment connu pour avoir découvert, jeune voyageur en Nouvelle-Guinée, le Papilio laglaizei, un beau papillon de velours noir.
 Cet ami de Jean Baptiste Boisduval s'est aussi occupé de la conservation de la célèbre collection de ce médecin.
@@ -512,14 +524,16 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a notamment écrit [1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a notamment écrit  :
 Catalogue méthodique des Lépidoptères d'Europe (1861) ;
 Histoire naturelle des Lépidoptères d'Europe  (1867), préface de George Sand ;
 Les papillons: organisation-- mœurs-- chasse-- collections-- classification. Iconographie et histoire naturelle des papillons d'Europe (1877) ;
 Description d'une nouvelle espèce de Lépidoptère du g. Papilio, provenant de la Nouvelle-Guinée (1878).
-Il est devenu membre de la  Société entomologique de France dès 1856[2].
+Il est devenu membre de la  Société entomologique de France dès 1856.
 </t>
         </is>
       </c>
